--- a/ig/amelioration-mapping/StructureDefinition-ror-location-residential-capacity.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-location-residential-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:47:28+00:00</t>
+    <t>2024-01-19T15:31:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-location-residential-capacity.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-location-residential-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T15:31:36+00:00</t>
+    <t>2024-01-22T16:15:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-location-residential-capacity.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-location-residential-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-22T16:15:43+00:00</t>
+    <t>2024-01-24T16:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-location-residential-capacity.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-location-residential-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T16:02:26+00:00</t>
+    <t>2024-02-06T12:55:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -318,7 +318,7 @@
     <t>residentialType</t>
   </si>
   <si>
-    <t>typeHabitation</t>
+    <t>typeHabitation : JDV-J32-TypeHabitation-ROR</t>
   </si>
   <si>
     <t>Extension.extension:residentialType.id</t>

--- a/ig/amelioration-mapping/StructureDefinition-ror-location-residential-capacity.xlsx
+++ b/ig/amelioration-mapping/StructureDefinition-ror-location-residential-capacity.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-06T12:55:52+00:00</t>
+    <t>2024-02-16T10:42:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
